--- a/ExerciserPhyConfig.xlsx
+++ b/ExerciserPhyConfig.xlsx
@@ -55,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -69,21 +69,44 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -622,11 +645,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Modulator Configuration</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -683,11 +702,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Modulator Configuration</t>
-        </is>
-      </c>
+      <c r="A4" s="5" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -805,11 +820,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A6" s="4" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -870,11 +881,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A7" s="4" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -935,11 +942,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A8" s="4" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -996,11 +999,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A9" s="4" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1057,11 +1056,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A10" s="4" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1118,11 +1113,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A11" s="4" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1179,11 +1170,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A12" s="4" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1240,11 +1227,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A13" s="4" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1305,11 +1288,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A14" s="4" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1362,11 +1341,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A15" s="4" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1427,11 +1402,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A16" s="4" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1488,11 +1459,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A17" s="4" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1549,11 +1516,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A18" s="4" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -1610,11 +1573,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A19" s="4" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -1671,11 +1630,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A20" s="4" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -1736,11 +1691,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A21" s="4" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -1797,11 +1748,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A22" s="4" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -1854,11 +1801,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A23" s="4" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -1915,11 +1858,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A24" s="4" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -1976,11 +1915,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A25" s="4" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2041,11 +1976,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A26" s="4" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2098,11 +2029,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A27" s="4" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2159,11 +2086,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A28" s="4" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2220,11 +2143,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A29" s="4" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2281,11 +2200,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Load Configuration</t>
-        </is>
-      </c>
+      <c r="A30" s="5" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2399,11 +2314,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -2456,11 +2367,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A33" s="4" t="n"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -2517,11 +2424,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A34" s="4" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -2582,11 +2485,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A35" s="4" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -2643,11 +2542,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A36" s="4" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2704,11 +2599,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A37" s="4" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2769,11 +2660,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A38" s="4" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2830,11 +2717,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A39" s="4" t="n"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2891,11 +2774,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A40" s="4" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -2956,11 +2835,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A41" s="4" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3017,11 +2892,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A42" s="4" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3078,11 +2949,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A43" s="4" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3143,11 +3010,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A44" s="4" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3204,11 +3067,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A45" s="4" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3269,11 +3128,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A46" s="4" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3330,11 +3185,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A47" s="4" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3395,11 +3246,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A48" s="4" t="n"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3456,11 +3303,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A49" s="4" t="n"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3517,11 +3360,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A50" s="4" t="n"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3582,11 +3421,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>TPR Coil Configuration</t>
-        </is>
-      </c>
+      <c r="A51" s="5" t="n"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3698,11 +3533,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Power Profile</t>
-        </is>
-      </c>
+      <c r="A53" s="4" t="n"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -3763,11 +3594,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Power Profile</t>
-        </is>
-      </c>
+      <c r="A54" s="4" t="n"/>
       <c r="B54" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3822,11 +3649,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Power Profile</t>
-        </is>
-      </c>
+      <c r="A55" s="5" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -3948,11 +3771,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Controller Settings</t>
-        </is>
-      </c>
+      <c r="A57" s="4" t="n"/>
       <c r="B57" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -4013,11 +3832,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Controller Settings</t>
-        </is>
-      </c>
+      <c r="A58" s="4" t="n"/>
       <c r="B58" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -4074,11 +3889,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Controller Settings</t>
-        </is>
-      </c>
+      <c r="A59" s="4" t="n"/>
       <c r="B59" s="3" t="inlineStr">
         <is>
           <t>BPP || EPP</t>
@@ -4139,11 +3950,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>Controller Settings</t>
-        </is>
-      </c>
+      <c r="A60" s="4" t="n"/>
       <c r="B60" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -4200,11 +4007,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Controller Settings</t>
-        </is>
-      </c>
+      <c r="A61" s="4" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -4265,11 +4068,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Controller Settings</t>
-        </is>
-      </c>
+      <c r="A62" s="4" t="n"/>
       <c r="B62" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -4326,11 +4125,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Controller Settings</t>
-        </is>
-      </c>
+      <c r="A63" s="5" t="n"/>
       <c r="B63" s="3" t="inlineStr">
         <is>
           <t>MPP15 || MPP25 || APP15 || APP25</t>
@@ -4391,6 +4186,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A30"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A31:A51"/>
+    <mergeCell ref="A52:A55"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ExerciserPhyConfig.xlsx
+++ b/ExerciserPhyConfig.xlsx
@@ -483,7 +483,7 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="36" customWidth="1" min="5" max="5"/>
     <col width="32" customWidth="1" min="6" max="6"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D2" s="3" t="b">
@@ -653,7 +653,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D3" s="3" t="b">
@@ -710,7 +710,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D4" s="3" t="b">
@@ -771,7 +771,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D5" s="3" t="b">
@@ -828,7 +828,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D6" s="3" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D7" s="3" t="b">
@@ -950,7 +950,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D8" s="3" t="b">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D9" s="3" t="b">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D10" s="3" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D11" s="3" t="b">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D12" s="3" t="b">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D13" s="3" t="b">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D14" s="3" t="b">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D15" s="3" t="b">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D16" s="3" t="b">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D17" s="3" t="b">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D18" s="3" t="b">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D19" s="3" t="b">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D20" s="3" t="b">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D21" s="3" t="b">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D22" s="3" t="b">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D23" s="3" t="b">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D24" s="3" t="b">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D25" s="3" t="b">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D26" s="3" t="b">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D27" s="3" t="b">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D28" s="3" t="b">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D29" s="3" t="b">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D30" s="3" t="b">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D31" s="3" t="b">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D32" s="3" t="b">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D33" s="3" t="b">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D34" s="3" t="b">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D35" s="3" t="b">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D36" s="3" t="b">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D37" s="3" t="b">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D38" s="3" t="b">
@@ -2700,7 +2700,7 @@
       <c r="J38" s="3" t="inlineStr"/>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>TPR_MPP1</t>
+          <t>TPR_MPP1, TPR_MPP4</t>
         </is>
       </c>
       <c r="L38" s="3" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D39" s="3" t="b">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D40" s="3" t="b">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D41" s="3" t="b">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D42" s="3" t="b">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D43" s="3" t="b">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D44" s="3" t="b">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D45" s="3" t="b">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D46" s="3" t="b">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D47" s="3" t="b">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D48" s="3" t="b">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D49" s="3" t="b">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D50" s="3" t="b">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D51" s="3" t="b">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D52" s="3" t="b">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D53" s="3" t="b">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D54" s="3" t="b">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D55" s="3" t="b">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D56" s="3" t="b">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D57" s="3" t="b">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D58" s="3" t="b">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D59" s="3" t="b">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D60" s="3" t="b">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D61" s="3" t="b">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D62" s="3" t="b">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Sniffer</t>
+          <t>Dev-studio- exerciser mode</t>
         </is>
       </c>
       <c r="D63" s="3" t="b">

--- a/ExerciserPhyConfig.xlsx
+++ b/ExerciserPhyConfig.xlsx
@@ -483,7 +483,7 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="36" customWidth="1" min="5" max="5"/>
     <col width="32" customWidth="1" min="6" max="6"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D2" s="3" t="b">
@@ -653,7 +653,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D3" s="3" t="b">
@@ -710,7 +710,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D4" s="3" t="b">
@@ -771,7 +771,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D5" s="3" t="b">
@@ -828,7 +828,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D6" s="3" t="b">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D7" s="3" t="b">
@@ -950,7 +950,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D8" s="3" t="b">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D9" s="3" t="b">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D10" s="3" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D11" s="3" t="b">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D12" s="3" t="b">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D13" s="3" t="b">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D14" s="3" t="b">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D15" s="3" t="b">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D16" s="3" t="b">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D17" s="3" t="b">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D18" s="3" t="b">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D19" s="3" t="b">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D20" s="3" t="b">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="I20" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D21" s="3" t="b">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D22" s="3" t="b">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D23" s="3" t="b">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D24" s="3" t="b">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D25" s="3" t="b">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D26" s="3" t="b">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D27" s="3" t="b">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D28" s="3" t="b">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D29" s="3" t="b">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D30" s="3" t="b">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D31" s="3" t="b">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D32" s="3" t="b">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D33" s="3" t="b">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D34" s="3" t="b">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D35" s="3" t="b">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D36" s="3" t="b">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D37" s="3" t="b">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D38" s="3" t="b">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D39" s="3" t="b">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D40" s="3" t="b">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D41" s="3" t="b">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D42" s="3" t="b">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D43" s="3" t="b">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D44" s="3" t="b">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D45" s="3" t="b">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D46" s="3" t="b">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D47" s="3" t="b">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D48" s="3" t="b">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D49" s="3" t="b">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D50" s="3" t="b">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D51" s="3" t="b">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D52" s="3" t="b">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D53" s="3" t="b">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D54" s="3" t="b">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D55" s="3" t="b">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D56" s="3" t="b">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D57" s="3" t="b">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D58" s="3" t="b">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D59" s="3" t="b">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D60" s="3" t="b">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D61" s="3" t="b">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D62" s="3" t="b">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Dev-studio- exerciser mode</t>
+          <t>TPR Exerciser</t>
         </is>
       </c>
       <c r="D63" s="3" t="b">
